--- a/biology/Botanique/Francesco_Ardissone/Francesco_Ardissone.xlsx
+++ b/biology/Botanique/Francesco_Ardissone/Francesco_Ardissone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francesco Ardissone (né à Diano Marina, le 8 septembre 1837 et mort à Milan, le 4 avril 1910) est un botaniste italien.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ardissone Francesco est né à Diano Marina (Imperia) le 8 septembre 1837. Il a étudié à l'université de Gênes avec Giuseppe De Notaris, un spécialiste des cryptogames et a obtient un diplôme de professeur d'histoire naturelle au Collegio Guido Nolfi de Fano (Marches). Il s'est particulièrement intéressé à l'algologie et a été attiré par l'étude de la flore marine d'Acireale (Sicile). professeur de sciences naturelles aux écoles secondaires d'Acireale (1862) et de Fano (1863-1870), à partir de 1907, il est professeur de botanique à l' École supérieure d'agriculture de Milan, où il est également directeur du Jardin botanique de Brera et de décembre 1897 à janvier 1899, directeur de ladite École supérieure[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ardissone Francesco est né à Diano Marina (Imperia) le 8 septembre 1837. Il a étudié à l'université de Gênes avec Giuseppe De Notaris, un spécialiste des cryptogames et a obtient un diplôme de professeur d'histoire naturelle au Collegio Guido Nolfi de Fano (Marches). Il s'est particulièrement intéressé à l'algologie et a été attiré par l'étude de la flore marine d'Acireale (Sicile). professeur de sciences naturelles aux écoles secondaires d'Acireale (1862) et de Fano (1863-1870), à partir de 1907, il est professeur de botanique à l' École supérieure d'agriculture de Milan, où il est également directeur du Jardin botanique de Brera et de décembre 1897 à janvier 1899, directeur de ladite École supérieure.
 En 1862, alors qu'il se trouve à Acireale, il commence à étudier les algues marines. Son premier ouvrage,  Enumerazione delle alghe di Sicilia (1864), constitue une contribution à la connaissance de l'algologie sicilienne. Après s'être installé à Fano, il commence à étudier les cryptogames dans les provinces d'Ancône, de Pesaro et d'Urbino ; il y rédige le Prospetto delle Ceramiee italiche et commence la publication de Floridee italiche descritte ed illustrate, un travail de dix ans et rassemblé en deux volumes.
-Francesco Ardissone est mort à Milan le 4 avril 1910[1].
+Francesco Ardissone est mort à Milan le 4 avril 1910.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(it)Enumerazione delle alghe di Sicilia (Enum. Alg. Sicil.), Commentario della Societa Crittogamologica Italiana, Gênes, Appendice, 1: 391-436 ; 1864.
 (it)Phycologia mediterranea : parte prima : Floridee . Varese: Tip. Ferri di Maj e Malnati, 1883.
